--- a/pred_ohlcv/54_21/2019-10-19 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ZRX ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-51281.34647970465</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-51713.58997970464</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-51662.81377970464</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-46641.88022526021</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-46439.88022526021</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-52865.63042526021</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-50780.18712526021</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-50780.18712526021</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-58708.11412526021</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-35001.28648081577</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-35001.28648081577</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-24233.12437970466</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-22297.12447970466</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-22297.12447970466</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-21691.66187970466</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-21548.16847970466</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-23938.83057970466</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-51994.90037970466</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-60208.90037970466</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-49689.56247970466</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-48999.56247970466</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-48999.56247970466</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-50775.59527970466</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-52319.43217970467</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-52319.43217970467</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ZRX ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-51697.40577485867</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-50444.17806499952</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-50453.61186499952</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-50453.61186499952</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-50387.01966499952</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-50387.01966499952</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-50526.33006499952</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-50498.0014531015</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-50590.14637970465</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-51281.34647970465</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-51713.58997970464</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-51662.81377970464</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-46641.88022526021</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-46439.88022526021</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-52865.63042526021</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-50780.18712526021</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-50780.18712526021</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-58708.11412526021</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-35001.28648081577</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-35001.28648081577</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-24233.12437970466</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-22297.12447970466</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-22297.12447970466</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-21691.66187970466</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-21691.66187970466</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-21548.16847970466</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-23938.83057970466</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-51994.90037970466</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-60208.90037970466</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
